--- a/database/seeds/phong.xlsx
+++ b/database/seeds/phong.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
-    <t>Phòng/ban sử dụng</t>
-  </si>
-  <si>
     <t>000 - BO PHAN CHUNG - CAN THO</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">441 - PHONG GIAO DICH KHACH HANG CA NHAN </t>
+  </si>
+  <si>
+    <t>tenphong</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,130 +511,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
